--- a/src/main/resources/datamanagement/TestData.xlsx
+++ b/src/main/resources/datamanagement/TestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91944\IdeaProjects\qalegend\src\main\resources\datamanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415C6F82-2FBB-4161-BE19-865FCC8D5CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40932DE0-38CD-456A-9D5C-C34EF5AFCD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3950" yWindow="340" windowWidth="14820" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3950" yWindow="340" windowWidth="14820" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetPage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,19 +26,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ExpectedTitle</t>
   </si>
   <si>
     <t>Login - Demo POS</t>
+  </si>
+  <si>
+    <t>aswathyss</t>
+  </si>
+  <si>
+    <t>marryGold</t>
+  </si>
+  <si>
+    <t>Aswathy S S</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>UserAccountName</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>We can't find a user with that e-mail address.</t>
+  </si>
+  <si>
+    <t>Email id</t>
+  </si>
+  <si>
+    <t>asw@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +81,20 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,14 +114,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -355,16 +404,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -375,7 +424,69 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE82A80-ABBA-421A-BBE8-3107793B9FF3}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3C2560B5-6008-40F3-A6AB-31A4A22DB8B2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/datamanagement/TestData.xlsx
+++ b/src/main/resources/datamanagement/TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91944\IdeaProjects\qalegend\src\main\resources\datamanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40932DE0-38CD-456A-9D5C-C34EF5AFCD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF24093-14E8-4BFA-A65A-E2AC8BAF65A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3950" yWindow="340" windowWidth="14820" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="ResetPage" sheetId="2" r:id="rId2"/>
+    <sheet name="UserManagement" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ExpectedTitle</t>
   </si>
@@ -62,6 +63,18 @@
   </si>
   <si>
     <t>asw@gmail.com</t>
+  </si>
+  <si>
+    <t>Panelvalues</t>
+  </si>
+  <si>
+    <t>Users;Roles;Sales Commission Agents</t>
+  </si>
+  <si>
+    <t>These credentials do not match our records.</t>
+  </si>
+  <si>
+    <t>ExpectedLoginErrorMessage</t>
   </si>
 </sst>
 </file>
@@ -404,16 +417,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="1" max="1" width="27.6328125" customWidth="1"/>
+    <col min="2" max="2" width="36.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -448,8 +461,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -457,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE82A80-ABBA-421A-BBE8-3107793B9FF3}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -489,4 +511,31 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0950BB7B-98ED-4DDE-85CD-6172AC5D2B25}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="33.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/datamanagement/TestData.xlsx
+++ b/src/main/resources/datamanagement/TestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91944\IdeaProjects\qalegend\src\main\resources\datamanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF24093-14E8-4BFA-A65A-E2AC8BAF65A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8BACA0-5E17-4D8B-B572-AD83F18DD2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="ResetPage" sheetId="2" r:id="rId2"/>
-    <sheet name="UserManagement" sheetId="3" r:id="rId3"/>
+    <sheet name="ManageUsers" sheetId="4" r:id="rId3"/>
+    <sheet name="UserManagement" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>ExpectedTitle</t>
   </si>
@@ -75,13 +76,22 @@
   </si>
   <si>
     <t>ExpectedLoginErrorMessage</t>
+  </si>
+  <si>
+    <t>No matching records found</t>
+  </si>
+  <si>
+    <t>ExpectedErrorMessage</t>
+  </si>
+  <si>
+    <t>Expected error message</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +119,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -131,11 +147,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -417,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -467,6 +484,14 @@
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -514,6 +539,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806F2B2F-FCF4-4F97-8EE8-FAA077E7BCF8}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0950BB7B-98ED-4DDE-85CD-6172AC5D2B25}">
   <dimension ref="A1:B1"/>
   <sheetViews>
